--- a/attach/clearing.xlsx
+++ b/attach/clearing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="orders" sheetId="3" r:id="rId3"/>
     <sheet name="accounting" sheetId="4" r:id="rId4"/>
     <sheet name="checking" sheetId="5" r:id="rId5"/>
+    <sheet name="sum" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
   <si>
     <t>订单号</t>
   </si>
@@ -84,32 +85,6 @@
   </si>
   <si>
     <t>P30001</t>
-  </si>
-  <si>
-    <t>农行借记卡</t>
-  </si>
-  <si>
-    <r>
-      <t>快捷支付</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>农行</t>
-    </r>
   </si>
   <si>
     <t>P2000002</t>
@@ -264,11 +239,91 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>F2000001</t>
+    <t>借</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款-支付宝收款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道费用-支付宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款-支付宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2000002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2000002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2000002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2000003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2000003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款-支付宝收款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道费用-支付宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P30001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P30002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P30002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道费用-工行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>借</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道费用-支付宝</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>银行存款-工行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款-支付宝收款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道费用-支付宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款-工行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款-支付宝</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -277,9 +332,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="182" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="184" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -384,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -472,13 +527,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,16 +565,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +598,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +610,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -548,13 +625,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,6 +639,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,7 +953,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -924,16 +1031,16 @@
         <v>42769.459826388891</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25">
@@ -950,16 +1057,16 @@
         <v>42769.460520833331</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -984,30 +1091,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1018,14 +1125,14 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="8">
         <v>99.9</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8">
         <f>D3</f>
@@ -1037,17 +1144,17 @@
         <v>42769.459143518521</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8">
         <v>99.9</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="8">
         <f>G3+D4</f>
@@ -1059,17 +1166,17 @@
         <v>42769.459155092591</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8">
         <v>99.9</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="8">
         <f>G4+D5</f>
@@ -1082,7 +1189,7 @@
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="8">
         <f>SUM(D3:D5)</f>
@@ -1090,7 +1197,7 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="8">
         <f>G5</f>
@@ -1108,7 +1215,7 @@
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1122,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75">
@@ -1184,7 +1291,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1197,25 +1304,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -1227,17 +1334,17 @@
         <v>10</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="22">
         <v>99.9</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="23"/>
     </row>
@@ -1249,17 +1356,17 @@
         <v>10</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="22">
         <v>0.1</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="23"/>
     </row>
@@ -1271,17 +1378,17 @@
         <v>10</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22">
         <v>100</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" s="23"/>
     </row>
@@ -1290,20 +1397,20 @@
         <v>42769.459826388891</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="22">
         <v>99.9</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="23"/>
     </row>
@@ -1312,20 +1419,20 @@
         <v>42769.459826388891</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="22">
         <v>0.1</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" s="23"/>
     </row>
@@ -1334,20 +1441,20 @@
         <v>42769.459826388891</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22">
         <v>100</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="23"/>
     </row>
@@ -1356,20 +1463,20 @@
         <v>42769.460520833331</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="22">
         <v>99.9</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" s="23"/>
     </row>
@@ -1378,20 +1485,20 @@
         <v>42769.460520833331</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="22">
         <v>0.1</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" s="23"/>
     </row>
@@ -1400,20 +1507,20 @@
         <v>42769.460520833331</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22">
         <v>100</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="23"/>
     </row>
@@ -1425,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1441,25 +1548,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25">
@@ -1473,14 +1580,14 @@
         <v>11</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="26">
         <v>99.9</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25">
@@ -1494,121 +1601,287 @@
         <v>11</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="26">
         <v>0.1</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="24">
-        <v>42770.125798611109</v>
+        <v>42770.139687499999</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="26">
         <v>99.9</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="24">
-        <v>42770.125798611109</v>
+        <v>42770.139687499999</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="26">
         <v>0.1</v>
       </c>
       <c r="G5" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25">
+      <c r="A6" s="28">
+        <v>42770.139687499999</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="32">
+        <f>F2+F4</f>
+        <v>199.8</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25">
+      <c r="A7" s="34">
+        <v>42770.139687499999</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.25">
+      <c r="A9" s="34">
+        <v>42770.15357638889</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25">
-      <c r="A6" s="24">
-        <v>42770.125798611109</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="26">
+      <c r="E9" s="16"/>
+      <c r="F9" s="35">
         <v>99.9</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25">
-      <c r="A7" s="24">
-        <v>42770.125798611109</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="26">
+      <c r="G9" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25">
+      <c r="A10" s="34">
+        <v>42770.15357638889</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="35">
         <v>0.1</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.25">
-      <c r="A8" s="24">
-        <v>42770.125798611109</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="G10" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25">
+      <c r="A11" s="34">
+        <v>42770.15357638889</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="26">
-        <f>F2+F4+F6</f>
+      <c r="E11" s="35">
+        <v>99.9</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25">
+      <c r="A12" s="34">
+        <v>42770.15357638889</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25">
+      <c r="A2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="16">
+        <v>199.8</v>
+      </c>
+      <c r="C2" s="26">
+        <v>199.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25">
+      <c r="A3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25">
+      <c r="A4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="26">
+        <v>99.9</v>
+      </c>
+      <c r="C4" s="26">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25">
+      <c r="A5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25">
+      <c r="A6" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="32">
+        <f>C2+C4</f>
         <v>299.70000000000005</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="23" t="s">
-        <v>34</v>
-      </c>
+      <c r="C6" s="32"/>
+    </row>
+    <row r="7" spans="1:3" ht="17.25">
+      <c r="A7" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/attach/clearing.xlsx
+++ b/attach/clearing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
   <si>
     <t>订单号</t>
   </si>
@@ -555,7 +555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,12 +597,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1078,9 +1072,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1162,46 +1158,24 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="14">
-        <v>42769.459155092591</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>26</v>
+      <c r="A5" s="16">
+        <v>42770.041678240741</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D5" s="8">
-        <v>99.9</v>
-      </c>
-      <c r="E5" s="9"/>
+        <f>SUM(D3:D4)</f>
+        <v>199.8</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="8">
-        <f>G4+D5</f>
-        <v>299.70000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="18">
-        <v>42770.041678240741</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8">
-        <f>SUM(D3:D5)</f>
-        <v>299.70000000000005</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="8">
-        <f>G5</f>
-        <v>299.70000000000005</v>
+        <f>G4</f>
+        <v>199.8</v>
       </c>
     </row>
   </sheetData>
@@ -1225,58 +1199,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>1000001</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <v>42769.458437499998</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>100</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>1000002</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>42769.458449074074</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>100</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>1000003</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>42769.458460648151</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>100</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1330,199 +1304,199 @@
       <c r="A2" s="6">
         <v>42769.459131944444</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <v>99.9</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="17.25">
       <c r="A3" s="6">
         <v>42769.459131944444</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>0.1</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="17.25">
       <c r="A4" s="6">
         <v>42769.459131944444</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
         <v>100</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="17.25">
       <c r="A5" s="6">
         <v>42769.459826388891</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>99.9</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="17.25">
       <c r="A6" s="6">
         <v>42769.459826388891</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>0.1</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="17.25">
       <c r="A7" s="6">
         <v>42769.459826388891</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20">
         <v>100</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="17.25">
       <c r="A8" s="6">
         <v>42769.460520833331</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <v>99.9</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="17.25">
       <c r="A9" s="6">
         <v>42769.460520833331</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>0.1</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="17.25">
       <c r="A10" s="6">
         <v>42769.460520833331</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20">
         <v>100</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1559,7 +1533,7 @@
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1570,222 +1544,222 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25">
-      <c r="A2" s="24">
+      <c r="A2" s="22">
         <v>42770.125798611109</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="26">
+      <c r="E2" s="14"/>
+      <c r="F2" s="24">
         <v>99.9</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25">
-      <c r="A3" s="24">
+      <c r="A3" s="22">
         <v>42770.125798611109</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="26">
+      <c r="E3" s="14"/>
+      <c r="F3" s="24">
         <v>0.1</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25">
-      <c r="A4" s="24">
+      <c r="A4" s="22">
         <v>42770.139687499999</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="26">
+      <c r="E4" s="14"/>
+      <c r="F4" s="24">
         <v>99.9</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25">
-      <c r="A5" s="24">
+      <c r="A5" s="22">
         <v>42770.139687499999</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="26">
+      <c r="E5" s="14"/>
+      <c r="F5" s="24">
         <v>0.1</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
-      <c r="A6" s="28">
+      <c r="A6" s="26">
         <v>42770.139687499999</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <f>F2+F4</f>
         <v>199.8</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25">
-      <c r="A7" s="34">
+      <c r="A7" s="32">
         <v>42770.139687499999</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <v>0.2</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="33"/>
+      <c r="G7" s="34" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:7" ht="17.25">
-      <c r="A9" s="34">
+      <c r="A9" s="32">
         <v>42770.15357638889</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="35">
+      <c r="E9" s="14"/>
+      <c r="F9" s="33">
         <v>99.9</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25">
-      <c r="A10" s="34">
+      <c r="A10" s="32">
         <v>42770.15357638889</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="35">
+      <c r="E10" s="14"/>
+      <c r="F10" s="33">
         <v>0.1</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25">
-      <c r="A11" s="34">
+      <c r="A11" s="32">
         <v>42770.15357638889</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="33">
         <v>99.9</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="33"/>
+      <c r="G11" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25">
-      <c r="A12" s="34">
+      <c r="A12" s="32">
         <v>42770.15357638889</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="33">
         <v>0.1</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="34" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1800,7 +1774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1813,7 +1787,7 @@
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1821,70 +1795,71 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>199.8</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="24">
         <v>199.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>0.2</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>99.9</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>99.9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>0.1</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <f>C2+C4</f>
         <v>299.70000000000005</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:3" ht="17.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <v>0.2</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>